--- a/cypress/fixtures/checklistDemo.xlsx
+++ b/cypress/fixtures/checklistDemo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gotit/Downloads/automation/cypress_mathgpt/cypress/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manhkaka/Downloads/automation-tut/cypress_mathgpt/cypress/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9AB588-EC2F-E942-B678-BC052EAD92D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1F78A9-9AB8-8D4A-9C32-F909BDC9B78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6400" yWindow="500" windowWidth="20720" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Title</t>
   </si>
@@ -116,6 +116,81 @@
 * Manually add student
 * Upload student list
 * Import from Canvas</t>
+  </si>
+  <si>
+    <t>precond2</t>
+  </si>
+  <si>
+    <t>precond3</t>
+  </si>
+  <si>
+    <t>step2</t>
+  </si>
+  <si>
+    <t>expected2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>testdata4</t>
+  </si>
+  <si>
+    <t>step1b</t>
+  </si>
+  <si>
+    <t>step2b</t>
+  </si>
+  <si>
+    <t>expected1b</t>
+  </si>
+  <si>
+    <t>expected2b</t>
+  </si>
+  <si>
+    <t>step1c</t>
+  </si>
+  <si>
+    <t>step2c</t>
+  </si>
+  <si>
+    <t>expected1c</t>
+  </si>
+  <si>
+    <t>expected2c</t>
+  </si>
+  <si>
+    <t>precond5</t>
+  </si>
+  <si>
+    <t>step1d</t>
+  </si>
+  <si>
+    <t>step2d</t>
+  </si>
+  <si>
+    <t>expected1d</t>
+  </si>
+  <si>
+    <t>expected2d</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>precond6</t>
+  </si>
+  <si>
+    <t>testdata6</t>
+  </si>
+  <si>
+    <t>step1e</t>
+  </si>
+  <si>
+    <t>expected1e</t>
   </si>
 </sst>
 </file>
@@ -483,8 +558,8 @@
   </sheetPr>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,7 +618,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -555,8 +630,94 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" s="2"/>
     </row>
